--- a/realme/OCTOBER/21.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/21.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Mugdho Corporation</t>
-  </si>
-  <si>
-    <t>Bank</t>
   </si>
   <si>
     <t>Hand</t>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>Direct Deposit Ishwardi to Doasheng</t>
+  </si>
+  <si>
+    <t>(City + Brac) Bank</t>
   </si>
 </sst>
 </file>
@@ -2510,6 +2510,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2537,12 +2549,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,12 +2559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,7 +3179,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3207,7 +3207,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="267" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="267"/>
       <c r="D2" s="267"/>
@@ -3241,7 +3241,7 @@
     <row r="5" spans="1:11">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19">
         <v>2200100</v>
@@ -3259,7 +3259,7 @@
     <row r="6" spans="1:11">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="19">
         <v>0</v>
@@ -3281,7 +3281,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="19">
         <v>624000</v>
@@ -3303,7 +3303,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="19">
         <v>190000</v>
@@ -3325,7 +3325,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="22">
         <v>70000</v>
@@ -3347,7 +3347,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="19">
         <v>100000</v>
@@ -3369,7 +3369,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="19">
         <v>1030000</v>
@@ -3391,7 +3391,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="19">
         <v>0</v>
@@ -3413,7 +3413,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="19">
         <v>900000</v>
@@ -3435,7 +3435,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="193" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="194">
         <v>300000</v>
@@ -3457,7 +3457,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="19">
         <v>720000</v>
@@ -3479,7 +3479,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="196">
         <v>590000</v>
@@ -3501,7 +3501,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="15"/>
       <c r="B17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="19">
         <v>110000</v>
@@ -3523,7 +3523,7 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19">
         <v>500000</v>
@@ -3545,7 +3545,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="15"/>
       <c r="B19" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -3567,7 +3567,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="15"/>
       <c r="B20" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="19">
         <v>1100000</v>
@@ -3589,7 +3589,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="15"/>
       <c r="B21" s="193" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="194">
         <v>350000</v>
@@ -3611,7 +3611,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="15"/>
       <c r="B22" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="19">
         <v>333000</v>
@@ -3633,7 +3633,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="15"/>
       <c r="B23" s="195" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="196">
         <v>0</v>
@@ -3655,23 +3655,21 @@
     <row r="24" spans="1:11">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="263">
-        <v>1600000</v>
-      </c>
-      <c r="D24" s="166">
-        <v>550000</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="D24" s="166"/>
       <c r="E24" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F24" s="264" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="265" t="s">
         <v>90</v>
-      </c>
-      <c r="G24" s="265" t="s">
-        <v>91</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3685,10 +3683,12 @@
       <c r="D25" s="19"/>
       <c r="E25" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>550000</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="15"/>
@@ -3701,7 +3701,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="1"/>
@@ -3717,7 +3717,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
@@ -3765,7 +3765,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1"/>
@@ -3781,7 +3781,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1"/>
@@ -3797,7 +3797,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -3813,7 +3813,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="1"/>
@@ -3845,7 +3845,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="1"/>
@@ -3861,7 +3861,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="198">
         <f t="shared" si="0"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="198">
         <f t="shared" ref="E37:E50" si="1">E36+C37-D37</f>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -3893,7 +3893,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -3909,7 +3909,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -3925,7 +3925,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -3941,7 +3941,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -3957,7 +3957,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -3970,7 +3970,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -3996,7 +3996,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -4022,7 +4022,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -4034,7 +4034,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -4046,7 +4046,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -4058,7 +4058,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="198">
         <f t="shared" si="1"/>
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -4068,11 +4068,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>10717100</v>
+        <v>10017100</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>9487300</v>
+        <v>8937300</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
@@ -4112,67 +4112,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="269" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
+      <c r="A2" s="273" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="270" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="272"/>
+      <c r="A3" s="274" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="276"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4181,53 +4181,53 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="277" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="C4" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="D4" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="277" t="s">
+      <c r="E4" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="277" t="s">
+      <c r="F4" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="277" t="s">
+      <c r="G4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="277" t="s">
+      <c r="H4" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="277" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="277" t="s">
+      <c r="J4" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="277" t="s">
+      <c r="K4" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="277" t="s">
+      <c r="L4" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="277" t="s">
+      <c r="M4" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="277" t="s">
+      <c r="N4" s="270" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="283" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="281" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="283" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="281" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="279" t="s">
-        <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
         <v>3</v>
@@ -4239,24 +4239,24 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="274"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="280"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="284"/>
+      <c r="P5" s="282"/>
       <c r="Q5" s="125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" s="126"/>
       <c r="T5" s="127"/>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="130"/>
       <c r="C6" s="130">
@@ -4309,7 +4309,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="130"/>
       <c r="C7" s="130"/>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="137">
         <v>500</v>
@@ -4376,14 +4376,14 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V8" s="26"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="137"/>
       <c r="C9" s="130"/>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="260">
         <v>500</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="137">
         <v>500</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="137"/>
       <c r="C12" s="130"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="137"/>
       <c r="C13" s="130"/>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="137">
         <v>500</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
       <c r="A15" s="129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="137"/>
       <c r="C15" s="130"/>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="137"/>
       <c r="C16" s="130"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="137">
         <v>500</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1">
       <c r="A18" s="129" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="137"/>
       <c r="C18" s="130"/>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="19" spans="1:23" s="9" customFormat="1">
       <c r="A19" s="129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="137"/>
       <c r="C19" s="130"/>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="20" spans="1:23" s="9" customFormat="1">
       <c r="A20" s="129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="137">
         <v>500</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="137"/>
       <c r="C21" s="130"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="137"/>
       <c r="C22" s="130"/>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="23" spans="1:23" s="145" customFormat="1">
       <c r="A23" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="137">
         <v>500</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="37" spans="1:18" s="118" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="155">
         <f>SUM(B6:B36)</f>
@@ -7304,6 +7304,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7320,9 +7323,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="292" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="292"/>
       <c r="C2" s="292"/>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
       <c r="A3" s="293" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="293"/>
       <c r="C3" s="293"/>
@@ -7546,16 +7546,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="D4" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="E4" s="247" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="247" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="249" t="s">
         <v>1</v>
@@ -7628,7 +7628,7 @@
       <c r="F5" s="245"/>
       <c r="G5" s="39"/>
       <c r="H5" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="41"/>
@@ -7696,7 +7696,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="45"/>
       <c r="H6" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="41"/>
@@ -7764,7 +7764,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="45"/>
       <c r="H7" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="41"/>
@@ -7832,7 +7832,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
@@ -7900,7 +7900,7 @@
       <c r="F9" s="177"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -7968,7 +7968,7 @@
       <c r="F10" s="192"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
@@ -8036,7 +8036,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="52"/>
       <c r="H11" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
@@ -8104,7 +8104,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="52"/>
       <c r="H12" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
@@ -8172,7 +8172,7 @@
       <c r="F13" s="192"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -8240,7 +8240,7 @@
       <c r="F14" s="177"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
@@ -8308,7 +8308,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="52"/>
       <c r="H15" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -8376,7 +8376,7 @@
       <c r="F16" s="44"/>
       <c r="G16" s="52"/>
       <c r="H16" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -8444,7 +8444,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -8512,7 +8512,7 @@
       <c r="F18" s="192"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -8580,7 +8580,7 @@
       <c r="F19" s="177"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
@@ -8648,7 +8648,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
@@ -8716,7 +8716,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
@@ -8784,7 +8784,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
@@ -8852,7 +8852,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
@@ -8920,7 +8920,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="45"/>
       <c r="H24" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
@@ -8988,7 +8988,7 @@
       <c r="F25" s="177"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -9056,7 +9056,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
@@ -9124,7 +9124,7 @@
       <c r="F27" s="177"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
@@ -9192,7 +9192,7 @@
       <c r="F28" s="177"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -9260,7 +9260,7 @@
       <c r="F29" s="177"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -9328,7 +9328,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="58"/>
       <c r="H30" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="60"/>
       <c r="J30" s="59"/>
@@ -9398,7 +9398,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="61"/>
       <c r="H31" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="60"/>
       <c r="J31" s="62"/>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
       <c r="A35" s="294" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="295"/>
       <c r="C35" s="295"/>
@@ -10050,16 +10050,16 @@
     </row>
     <row r="41" spans="1:61">
       <c r="A41" s="212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="222">
         <v>38960</v>
       </c>
       <c r="D41" s="213" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="67"/>
       <c r="F41" s="40"/>
@@ -10121,16 +10121,16 @@
     </row>
     <row r="42" spans="1:61" ht="13.5" thickBot="1">
       <c r="A42" s="212" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="222">
         <v>8270</v>
       </c>
       <c r="D42" s="213" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="226"/>
       <c r="G42" s="69"/>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="43" spans="1:61" ht="13.5" thickBot="1">
       <c r="A43" s="214" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="215"/>
       <c r="C43" s="222">
@@ -10200,7 +10200,7 @@
       <c r="D43" s="216"/>
       <c r="E43" s="49"/>
       <c r="F43" s="297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="298"/>
       <c r="H43" s="298"/>
@@ -10322,14 +10322,14 @@
     </row>
     <row r="45" spans="1:61">
       <c r="A45" s="250" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="177"/>
       <c r="C45" s="221">
         <v>1000</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="72"/>
@@ -10390,16 +10390,16 @@
     </row>
     <row r="46" spans="1:61">
       <c r="A46" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="221">
         <v>134680</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="177"/>
@@ -11410,19 +11410,19 @@
       <c r="D62" s="82"/>
       <c r="E62" s="54"/>
       <c r="F62" s="285" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62" s="285"/>
       <c r="H62" s="172"/>
       <c r="I62" s="172"/>
       <c r="J62" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="84" t="s">
+      <c r="L62" s="85" t="s">
         <v>26</v>
-      </c>
-      <c r="L62" s="85" t="s">
-        <v>27</v>
       </c>
       <c r="M62" s="173"/>
       <c r="N62" s="173"/>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
       <c r="A113" s="286" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="287"/>
       <c r="C113" s="236">
@@ -14890,7 +14890,7 @@
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
       <c r="A115" s="288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="289"/>
       <c r="C115" s="234">
@@ -15028,7 +15028,7 @@
       <c r="B117" s="173"/>
       <c r="D117" s="104"/>
       <c r="E117" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" s="91"/>
       <c r="G117" s="89"/>
@@ -17471,8 +17471,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17493,7 +17493,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
       <c r="A1" s="303" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="304"/>
       <c r="C1" s="304"/>
@@ -17504,7 +17504,7 @@
     </row>
     <row r="2" spans="1:29" ht="21.75">
       <c r="A2" s="312" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="313"/>
       <c r="C2" s="313"/>
@@ -17515,7 +17515,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="306" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="307"/>
       <c r="C3" s="307"/>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
       <c r="A4" s="315" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="316"/>
       <c r="C4" s="316"/>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="5" spans="1:29" ht="21.75">
       <c r="A5" s="209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="254">
         <v>6000000</v>
@@ -17626,10 +17626,10 @@
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="189" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E6" s="201">
-        <v>1229800</v>
+        <v>1079800</v>
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="1"/>
@@ -17658,10 +17658,10 @@
       <c r="B7" s="200"/>
       <c r="C7" s="33"/>
       <c r="D7" s="189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="253">
-        <v>521710</v>
+        <v>671710</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -17756,7 +17756,7 @@
     </row>
     <row r="10" spans="1:29" ht="21.75">
       <c r="A10" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="200">
         <v>0</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="189" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="201">
         <v>14050</v>
@@ -17838,18 +17838,18 @@
       <c r="B12" s="256"/>
       <c r="C12" s="33"/>
       <c r="D12" s="189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="253">
         <v>569500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="186"/>
       <c r="I12" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -17882,7 +17882,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="186"/>
       <c r="I13" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>

--- a/realme/OCTOBER/21.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/21.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -2516,6 +2516,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,12 +2559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4112,67 +4112,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="275" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="275"/>
-      <c r="M3" s="275"/>
-      <c r="N3" s="275"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="278"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4181,10 +4181,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="279" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="281" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="268" t="s">
@@ -4220,13 +4220,13 @@
       <c r="M4" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="270" t="s">
+      <c r="N4" s="272" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="283" t="s">
+      <c r="O4" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="283" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4239,8 +4239,8 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="280"/>
+      <c r="A5" s="280"/>
+      <c r="B5" s="282"/>
       <c r="C5" s="269"/>
       <c r="D5" s="269"/>
       <c r="E5" s="269"/>
@@ -4252,9 +4252,9 @@
       <c r="K5" s="269"/>
       <c r="L5" s="269"/>
       <c r="M5" s="269"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="282"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="284"/>
       <c r="Q5" s="125" t="s">
         <v>42</v>
       </c>
@@ -7304,12 +7304,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7323,6 +7317,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17471,8 +17471,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
